--- a/数据整理/stocks/A股/深证主板/000718-苏宁环球.xlsx
+++ b/数据整理/stocks/A股/深证主板/000718-苏宁环球.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.38</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.63</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3728</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005125</t>
+          <t>515180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝标普中国A股红利机会指数C</t>
+          <t>易方达中证红利ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>13.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501029</t>
+          <t>005125</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+          <t>华宝标普中国A股红利机会指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.53</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.47</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>501029</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007801</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成中证红利指数C</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501072</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>97.85</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>97.75</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商中证红利ETF</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>98.80</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>515180</t>
+          <t>515890</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达中证红利ETF</t>
+          <t>博时中证红利ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98.73</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>1.72</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>515890</t>
+          <t>501072</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时中证红利ETF</t>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501029</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4290</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>515180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>易方达中证红利ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>501029</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161907</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家中证红利指数(LOF)</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501072</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>100.47</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>080005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>长盛量化红利混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商中证红利ETF</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>515180</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达中证红利ETF</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>080005</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长盛量化红利混合</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>515890</t>
+          <t>161907</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时中证红利ETF</t>
+          <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98.94</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>515890</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>博时中证红利ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007801</t>
+          <t>501072</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大成中证红利指数C</t>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>100.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000718-苏宁环球.xlsx
+++ b/数据整理/stocks/A股/深证主板/000718-苏宁环球.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5914</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9747</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4577</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000718-苏宁环球.xlsx
+++ b/数据整理/stocks/A股/深证主板/000718-苏宁环球.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1942,4 +1943,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000718-苏宁环球.xlsx
+++ b/数据整理/stocks/A股/深证主板/000718-苏宁环球.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2341,4 +2342,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000718-苏宁环球.xlsx
+++ b/数据整理/stocks/A股/深证主板/000718-苏宁环球.xlsx
@@ -2366,12 +2366,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000718-苏宁环球.xlsx
+++ b/数据整理/stocks/A股/深证主板/000718-苏宁环球.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,471 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成中证红利指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3728</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2403</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005125</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1792</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501029</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1792</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0736</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005561</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0513</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>97.75</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -928,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -989,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>30.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4290</t>
+          <t>0.6014</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1027,26 +653,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>13.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>98.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2242</t>
+          <t>0.2707</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1055,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501029</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>99.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1630</t>
+          <t>0.1726</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1093,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商中证红利ETF</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0984</t>
+          <t>0.0517</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1131,32 +757,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>98.53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0455</t>
+          <t>0.0495</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1169,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>080005</t>
+          <t>161907</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长盛量化红利混合</t>
+          <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0293</t>
+          <t>0.0441</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1207,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0239</t>
+          <t>0.0277</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1245,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007801</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成中证红利指数C</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1283,150 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>515890</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>博时中证红利ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.0049</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>161907</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>万家中证红利指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>95.02</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>100.47</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +1464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2013,26 +1525,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.84</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6014</t>
+          <t>0.4290</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2051,26 +1563,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.14</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.99</t>
+          <t>99.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2707</t>
+          <t>0.2242</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2079,36 +1591,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>501029</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商中证红利ETF</t>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.34</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.60</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1726</t>
+          <t>0.1630</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2117,36 +1629,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>99.24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0517</t>
+          <t>0.0984</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2155,32 +1667,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.53</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0495</t>
+          <t>0.0455</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2193,36 +1705,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161907</t>
+          <t>080005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家中证红利指数(LOF)</t>
+          <t>长盛量化红利混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0441</t>
+          <t>0.0293</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2231,36 +1743,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007801</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成中证红利指数C</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>98.59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0277</t>
+          <t>0.0239</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2269,36 +1781,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0193</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -2307,36 +1819,150 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>515890</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>博时中证红利ETF</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>0.24</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>100.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2350,96 +1976,470 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3728</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.15</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>